--- a/data/public/soa_results/LIMES/results.xlsx
+++ b/data/public/soa_results/LIMES/results.xlsx
@@ -251,14 +251,14 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2147,14 +2147,14 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4011,14 +4011,14 @@
   </sheetPr>
   <dimension ref="A1:U57"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G39" activeCellId="0" sqref="G39"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,13 +5876,13 @@
   <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
